--- a/bitacora.xlsx
+++ b/bitacora.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +874,147 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DIRECCIÓN REGIONAL DE SALUD TUMBES</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>33500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CAMILLAS PARA PARTOS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CAMILLAS PARA EXAMEN GINECOLÓGICOS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>COCHE DE PARO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ESCALINATA DE 1 PELDAÑO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ANALIZADOR BIOQUÍMICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DIRECCIÓN REGIONAL DE SALUD DE CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CAMILLA HIDRÁULICA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ASPIRADOR DE SECRECIONES</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ASPIRADOR DE SECRECIONES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ASPIRADOR QUIRURGICO RODABLE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>AUTOCLAVE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BALANZA DE PIE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BALANZA PEDIATRICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DIRESA JUNIN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CAMILLAS PARA PARTOS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CAMILLAS PARA EXAMEN GINECOLÓGICOS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CAMILLAS PARA EXAMEN GINECOLÓGICOS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SILLA TADEM DE 6 ASIENTOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CAMA ELECTROMECÁNICAS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ASPIRADOR DE SECRECIONES</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ASPIRADOR DE SECRECIONES</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ANALIZADOR BIOQUÍMICO</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ASPIRADOR QUIRURGICO RODABLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
